--- a/scripts/_zrowland885/processed_data/Mapping for Tableau CASE statements.xlsx
+++ b/scripts/_zrowland885/processed_data/Mapping for Tableau CASE statements.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="variable_case" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="mapping_case" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="indicator_case" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">variable_case!$A$1:$C$1036</definedName>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="2072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="2108">
   <si>
     <t>variable</t>
   </si>
@@ -6231,13 +6232,121 @@
   </si>
   <si>
     <t>Percent Estimate!!HISPANIC OR LATINO AND RACE!!Total population!!Not Hispanic or Latino!!Two or more races!!Two races including Some other race</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>total-evictions</t>
+  </si>
+  <si>
+    <t>avg-evictions</t>
+  </si>
+  <si>
+    <t>total-foreclosure-sales</t>
+  </si>
+  <si>
+    <t>avg-foreclosure-sales</t>
+  </si>
+  <si>
+    <t>total-lien-foreclosures</t>
+  </si>
+  <si>
+    <t>avg-lien-foreclosures</t>
+  </si>
+  <si>
+    <t>total-evictions-2017</t>
+  </si>
+  <si>
+    <t>eviction-filings-2017</t>
+  </si>
+  <si>
+    <t>eviction-rate-2017</t>
+  </si>
+  <si>
+    <t>total-evictions-2018</t>
+  </si>
+  <si>
+    <t>eviction-filings-2018</t>
+  </si>
+  <si>
+    <t>eviction-rate-2018</t>
+  </si>
+  <si>
+    <t>total-evictions-2019</t>
+  </si>
+  <si>
+    <t>eviction-filings-2019</t>
+  </si>
+  <si>
+    <t>eviction-rate-2019</t>
+  </si>
+  <si>
+    <t>foreclosure-sales-2017</t>
+  </si>
+  <si>
+    <t>foreclosure-sales-2018</t>
+  </si>
+  <si>
+    <t>foreclosure-sales-2019</t>
+  </si>
+  <si>
+    <t>lien-foreclosures-2017</t>
+  </si>
+  <si>
+    <t>lien-foreclosures-2018</t>
+  </si>
+  <si>
+    <t>lien-foreclosures-2019</t>
+  </si>
+  <si>
+    <t>avg-foreclosure-rate</t>
+  </si>
+  <si>
+    <t>foreclosure-rate-2017</t>
+  </si>
+  <si>
+    <t>foreclosure-rate-2018</t>
+  </si>
+  <si>
+    <t>foreclosure-rate-2019</t>
+  </si>
+  <si>
+    <t>avg-lien-foreclosure-rate</t>
+  </si>
+  <si>
+    <t>lien-foreclosure-rate-2017</t>
+  </si>
+  <si>
+    <t>lien-foreclosure-rate-2018</t>
+  </si>
+  <si>
+    <t>lien-foreclosure-rate-2019</t>
+  </si>
+  <si>
+    <t>avg-eviction-rate</t>
+  </si>
+  <si>
+    <t>ratio-to-mean-foreclosure-rate</t>
+  </si>
+  <si>
+    <t>ratio-to-mean-eviction-rate</t>
+  </si>
+  <si>
+    <t>avg-housing-loss-rate</t>
+  </si>
+  <si>
+    <t>evictions-pct-total-housing-loss</t>
+  </si>
+  <si>
+    <t>housing-loss-index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -6247,13 +6356,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -6276,7 +6395,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6293,6 +6412,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6306,6 +6428,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -46857,4 +46983,342 @@
   <autoFilter ref="$A$1:$G$1033"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B36" si="1">CONCATENATE("WHEN '",A2,"' THEN [",A2,"]")</f>
+        <v>WHEN 'total-evictions' THEN [total-evictions]</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-evictions' THEN [avg-evictions]</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'total-foreclosure-sales' THEN [total-foreclosure-sales]</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-foreclosure-sales' THEN [avg-foreclosure-sales]</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'total-lien-foreclosures' THEN [total-lien-foreclosures]</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-lien-foreclosures' THEN [avg-lien-foreclosures]</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'total-evictions-2017' THEN [total-evictions-2017]</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'eviction-filings-2017' THEN [eviction-filings-2017]</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'eviction-rate-2017' THEN [eviction-rate-2017]</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'total-evictions-2018' THEN [total-evictions-2018]</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'eviction-filings-2018' THEN [eviction-filings-2018]</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'eviction-rate-2018' THEN [eviction-rate-2018]</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'total-evictions-2019' THEN [total-evictions-2019]</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'eviction-filings-2019' THEN [eviction-filings-2019]</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'eviction-rate-2019' THEN [eviction-rate-2019]</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'foreclosure-sales-2017' THEN [foreclosure-sales-2017]</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'foreclosure-sales-2018' THEN [foreclosure-sales-2018]</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'foreclosure-sales-2019' THEN [foreclosure-sales-2019]</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'lien-foreclosures-2017' THEN [lien-foreclosures-2017]</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'lien-foreclosures-2018' THEN [lien-foreclosures-2018]</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'lien-foreclosures-2019' THEN [lien-foreclosures-2019]</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-foreclosure-rate' THEN [avg-foreclosure-rate]</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'foreclosure-rate-2017' THEN [foreclosure-rate-2017]</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'foreclosure-rate-2018' THEN [foreclosure-rate-2018]</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'foreclosure-rate-2019' THEN [foreclosure-rate-2019]</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-lien-foreclosure-rate' THEN [avg-lien-foreclosure-rate]</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'lien-foreclosure-rate-2017' THEN [lien-foreclosure-rate-2017]</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'lien-foreclosure-rate-2018' THEN [lien-foreclosure-rate-2018]</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'lien-foreclosure-rate-2019' THEN [lien-foreclosure-rate-2019]</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-eviction-rate' THEN [avg-eviction-rate]</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'ratio-to-mean-foreclosure-rate' THEN [ratio-to-mean-foreclosure-rate]</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'ratio-to-mean-eviction-rate' THEN [ratio-to-mean-eviction-rate]</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'avg-housing-loss-rate' THEN [avg-housing-loss-rate]</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'evictions-pct-total-housing-loss' THEN [evictions-pct-total-housing-loss]</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>WHEN 'housing-loss-index' THEN [housing-loss-index]</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>